--- a/commandline/roster.xlsx
+++ b/commandline/roster.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehtad/Desktop/hks-coursework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johria/Development/code4policy-private/commandline/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>Order #</t>
   </si>
@@ -44,21 +44,12 @@
     <t>Please select your degree program</t>
   </si>
   <si>
-    <t>Please specify:</t>
-  </si>
-  <si>
     <t>What do you hope to get from this workshop? Why are you attending?</t>
   </si>
   <si>
     <t>What is your technical background or experience, if any?</t>
   </si>
   <si>
-    <t>Is there a particular technology youâ€™d like to know more about from the list below?</t>
-  </si>
-  <si>
-    <t>I will be bringing a laptop with the following OS:</t>
-  </si>
-  <si>
     <t>firstname507357239</t>
   </si>
   <si>
@@ -285,6 +276,18 @@
   </si>
   <si>
     <t>Git &amp; Github | The Terminal / Command Line (mac or linux) | One or more statistical programming languages (eg. R, Stata) | Web Scraping</t>
+  </si>
+  <si>
+    <t>Please specify your degree program</t>
+  </si>
+  <si>
+    <t>Is there a particular technology you'd like to know more about from the list below?</t>
+  </si>
+  <si>
+    <t>Please specify the technology</t>
+  </si>
+  <si>
+    <t>I will be bringing a laptop with the following OS</t>
   </si>
 </sst>
 </file>
@@ -601,11 +604,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -624,22 +633,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -647,31 +656,31 @@
         <v>507357239</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -679,31 +688,31 @@
         <v>507368388</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -711,31 +720,31 @@
         <v>507403248</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -743,31 +752,31 @@
         <v>507490263</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -775,31 +784,31 @@
         <v>508544683</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -807,31 +816,31 @@
         <v>508655576</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -839,28 +848,28 @@
         <v>508697684</v>
       </c>
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>61</v>
-      </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -868,28 +877,28 @@
         <v>508707748</v>
       </c>
       <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s">
+      <c r="H9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" t="s">
-        <v>67</v>
-      </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -897,28 +906,28 @@
         <v>508709971</v>
       </c>
       <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
+      <c r="H10" t="s">
         <v>69</v>
       </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -926,28 +935,28 @@
         <v>508710455</v>
       </c>
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>75</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>76</v>
       </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s">
-        <v>79</v>
-      </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -955,28 +964,28 @@
         <v>508764291</v>
       </c>
       <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" t="s">
+      <c r="H12" t="s">
         <v>81</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I12" t="s">
         <v>82</v>
       </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" t="s">
-        <v>85</v>
-      </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
